--- a/August'21/18.08.2021/Hello Daffodils Balance Transfer August-2021.xlsx
+++ b/August'21/18.08.2021/Hello Daffodils Balance Transfer August-2021.xlsx
@@ -1301,7 +1301,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2713,12 +2713,12 @@
         <v>469993</v>
       </c>
       <c r="C21" s="1">
-        <v>341439</v>
+        <v>419529</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>341439</v>
+        <v>419529</v>
       </c>
       <c r="F21" s="77"/>
       <c r="G21" s="18"/>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C34" s="1">
         <f>SUM(C6:C33)</f>
-        <v>3871029</v>
+        <v>3949119</v>
       </c>
       <c r="D34" s="1">
         <f>SUM(D6:D33)</f>
@@ -3573,11 +3573,11 @@
       </c>
       <c r="E34" s="1">
         <f>SUM(E6:E33)</f>
-        <v>3871029</v>
+        <v>3949119</v>
       </c>
       <c r="F34" s="1">
         <f>B34-E34</f>
-        <v>-87956</v>
+        <v>-166046</v>
       </c>
       <c r="G34" s="63"/>
       <c r="H34" s="85"/>
@@ -5324,7 +5324,7 @@
         <v>34</v>
       </c>
       <c r="C60" s="54">
-        <v>26286</v>
+        <v>8986</v>
       </c>
       <c r="D60" s="34" t="s">
         <v>69</v>
@@ -6238,7 +6238,7 @@
         <v>34</v>
       </c>
       <c r="C72" s="53">
-        <v>51875</v>
+        <v>11805</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>69</v>
@@ -6313,9 +6313,7 @@
       <c r="B73" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="53">
-        <v>20720</v>
-      </c>
+      <c r="C73" s="53"/>
       <c r="D73" s="34" t="s">
         <v>69</v>
       </c>
@@ -6761,7 +6759,7 @@
       <c r="B80" s="121"/>
       <c r="C80" s="101">
         <f>SUM(C38:C79)</f>
-        <v>405028</v>
+        <v>326938</v>
       </c>
       <c r="D80" s="102"/>
       <c r="E80" s="5"/>
